--- a/Guild Digital/Example CHT application/forms/app/suspected_outbreaks.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/suspected_outbreaks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -117,9 +117,63 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Facility ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">end group</t>
   </si>
   <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_family_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/parent/_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">outbreaks</t>
   </si>
   <si>
@@ -264,7 +318,7 @@
     <t xml:space="preserve">path</t>
   </si>
   <si>
-    <t xml:space="preserve">Suspected Outbreaks Form</t>
+    <t xml:space="preserve">Suspected Outbreaks</t>
   </si>
   <si>
     <t xml:space="preserve">suspected_outbreaks</t>
@@ -314,16 +368,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -390,7 +444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,12 +457,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -516,18 +574,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="57.03125" defaultRowHeight="25.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +634,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -589,14 +644,35 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -606,14 +682,35 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -623,11 +720,33 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -637,9 +756,32 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -651,14 +793,34 @@
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -668,279 +830,755 @@
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" s="2" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="db:person"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -962,11 +1600,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -999,8 +1637,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
+      <c r="A2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1033,8 +1671,8 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
+      <c r="A3" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1067,8 +1705,8 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
+      <c r="A4" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1101,8 +1739,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
+      <c r="A5" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1163,14 +1801,14 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
+      <c r="A7" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1197,14 +1835,14 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
+      <c r="A8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1231,14 +1869,14 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
+      <c r="A9" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1265,14 +1903,14 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
+      <c r="A10" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1327,14 +1965,14 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="n">
+      <c r="A12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <v>45219</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>62</v>
+      <c r="C12" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1361,14 +1999,14 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
+      <c r="A13" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1395,14 +2033,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>61</v>
+      <c r="A14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1429,14 +2067,14 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>61</v>
+      <c r="A15" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1491,14 +2129,14 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
+      <c r="A17" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1525,14 +2163,14 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
+      <c r="A18" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1559,14 +2197,14 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>66</v>
+      <c r="A19" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1593,14 +2231,14 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
+      <c r="A20" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1645,87 +2283,87 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="AMJ1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="AMJ1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="9" t="str">
+      <c r="A2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-19  21-26</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="AMJ2" s="11"/>
+        <v>2023-12-08  14-18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="AMJ2" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Guild Digital/Example CHT application/forms/app/suspected_outbreaks.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/suspected_outbreaks.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">How frequently, on a weekly basis, was the mentioned outbreak reported?</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
+    <t xml:space="preserve">db:health_center</t>
   </si>
   <si>
     <t xml:space="preserve">affected_area</t>
@@ -338,7 +338,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -379,6 +379,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -444,56 +450,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,15 +571,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.03125" defaultRowHeight="25.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,13 +1472,13 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="1"/>
@@ -1400,13 +1508,13 @@
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1438,13 +1546,13 @@
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1473,22 +1581,24 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1514,13 +1624,13 @@
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1579,9 +1689,12 @@
       <c r="Z28" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="db:health_center"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1590,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1637,7 +1750,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -1671,7 +1784,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -1705,7 +1818,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -1739,7 +1852,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -1801,7 +1914,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1835,7 +1948,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1869,7 +1982,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1903,7 +2016,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1965,7 +2078,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="9" t="n">
@@ -1999,7 +2112,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2033,7 +2146,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2067,7 +2180,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2129,7 +2242,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2163,7 +2276,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2197,7 +2310,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2231,7 +2344,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2267,7 +2380,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2276,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2305,26 +2418,26 @@
         <v>97</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="AMJ1" s="12"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="AMJ1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
@@ -2335,7 +2448,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-08  14-18</v>
+        <v>2024-02-28  13-43</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>100</v>
@@ -2344,31 +2457,31 @@
         <v>101</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="AMJ2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="AMJ2" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
